--- a/doc/grades.xlsx
+++ b/doc/grades.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="grades" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="25.2" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -185,7 +185,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -212,6 +212,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -400,7 +404,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="11:11"/>
+      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -528,62 +532,62 @@
         <v>27.6666666666667</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="n">
+      <c r="B4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="n">
+      <c r="D4" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="K4" s="1" t="n">
+      <c r="F4" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="L4" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="M4" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="N4" s="1" t="n">
+      <c r="M4" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="N4" s="7" t="n">
         <f aca="false">(15 - B4)/15*10</f>
         <v>10</v>
       </c>
-      <c r="O4" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="P4" s="1" t="n">
+      <c r="O4" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P4" s="7" t="n">
         <f aca="false">C4*10</f>
         <v>20</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="Q4" s="7" t="n">
         <f aca="false">SUM(D4:M4)/100*30</f>
         <v>28.2</v>
       </c>
-      <c r="S4" s="1" t="n">
+      <c r="S4" s="7" t="n">
         <f aca="false">SUM(N4:R4)</f>
         <v>68.2</v>
       </c>

--- a/doc/grades.xlsx
+++ b/doc/grades.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t xml:space="preserve">Оценка за задания (из 10)</t>
   </si>
@@ -98,6 +98,87 @@
   </si>
   <si>
     <t xml:space="preserve">9 – результат в повышении осцилляций при применении полной диффузии сомнителен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- странно, что лог особенность не дала улучшений. Вроде должна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 – Какая-то косметическая разница должна быть в п.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 – нет периодических условий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- нет п.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 – поподробнее бы о методах ускорения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 – нет решения для CN/Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 – график 8.1 непонятен.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 – не рассмотрен случай оптимального k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   – нет п.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 – нет коментариев. Графики не на одном рисунке. Тики по x/y не одинаковы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 – тики, нет выводу по п.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 – тики, нет комментариев.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 – тики, нет выводов по п.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 – тики, нет комментариев. Непонятно, почему у кубических и квадтратичных одинаковая сходимость</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 – тики, комментарии, решения для разных сеток на рис.6.1, нет оптимизации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 – тики, нет комментариев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 – тики, нет комментариев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 – нет комметнариев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 – нет годунова, тики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Романов??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 – тики, чужой рис. 3., нет вывода по п.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- должно быть 4 графика на рис.7, нет графика с учётом лог. Особенности в 2Д</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 – вывод по линейной геометрии и второму порядку сомнителен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-- чужой рисунок 18. Нет вывода по оптимизации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 – тики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 – чужие рисунки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 – нет выводов по п.1, странное поведение решения на рис.28</t>
   </si>
 </sst>
 </file>
@@ -131,7 +212,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +229,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF2A6099"/>
         <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF38"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -214,7 +301,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -234,7 +321,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFFF38"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -401,10 +488,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S22" activeCellId="0" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -587,9 +674,12 @@
         <f aca="false">SUM(D4:M4)/100*30</f>
         <v>28.2</v>
       </c>
+      <c r="R4" s="7" t="n">
+        <v>40</v>
+      </c>
       <c r="S4" s="7" t="n">
         <f aca="false">SUM(N4:R4)</f>
-        <v>68.2</v>
+        <v>108.2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -632,6 +722,36 @@
       <c r="C6" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="D6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>6</v>
+      </c>
       <c r="N6" s="1" t="n">
         <f aca="false">(15 - B6)/15*10</f>
         <v>9</v>
@@ -645,11 +765,11 @@
       </c>
       <c r="Q6" s="1" t="n">
         <f aca="false">SUM(D6:M6)/100*30</f>
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="S6" s="1" t="n">
         <f aca="false">SUM(N6:R6)</f>
-        <v>39</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -742,64 +862,130 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="n">
+      <c r="B10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="N10" s="1" t="n">
+      <c r="D10" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="K10" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="M10" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="N10" s="7" t="n">
         <f aca="false">(15 - B10)/15*10</f>
         <v>10</v>
       </c>
-      <c r="O10" s="1" t="n">
+      <c r="O10" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="P10" s="1" t="n">
+      <c r="P10" s="7" t="n">
         <f aca="false">C10*10</f>
         <v>10</v>
       </c>
-      <c r="Q10" s="1" t="n">
+      <c r="Q10" s="7" t="n">
         <f aca="false">SUM(D10:M10)/100*30</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="1" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="R10" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="S10" s="7" t="n">
         <f aca="false">SUM(N10:R10)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="11" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="n">
+      <c r="B11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="N11" s="1" t="n">
+      <c r="D11" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="N11" s="7" t="n">
         <f aca="false">(15 - B11)/15*10</f>
         <v>10</v>
       </c>
-      <c r="O11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="P11" s="1" t="n">
+      <c r="O11" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P11" s="7" t="n">
         <f aca="false">C11*10</f>
         <v>20</v>
       </c>
-      <c r="Q11" s="1" t="n">
+      <c r="Q11" s="7" t="n">
         <f aca="false">SUM(D11:M11)/100*30</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="1" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="R11" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="S11" s="7" t="n">
         <f aca="false">SUM(N11:R11)</f>
-        <v>40</v>
+        <v>108.8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -872,6 +1058,36 @@
       <c r="C14" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="D14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>6</v>
+      </c>
       <c r="N14" s="1" t="n">
         <f aca="false">(15 - B14)/15*10</f>
         <v>6.33333333333333</v>
@@ -885,11 +1101,11 @@
       </c>
       <c r="Q14" s="1" t="n">
         <f aca="false">SUM(D14:M14)/100*30</f>
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="S14" s="1" t="n">
         <f aca="false">SUM(N14:R14)</f>
-        <v>6.33333333333333</v>
+        <v>29.1333333333333</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -913,6 +1129,158 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/doc/grades.xlsx
+++ b/doc/grades.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t xml:space="preserve">Оценка за задания (из 10)</t>
   </si>
@@ -157,9 +157,6 @@
     <t xml:space="preserve">10 – нет годунова, тики</t>
   </si>
   <si>
-    <t xml:space="preserve">Романов??</t>
-  </si>
-  <si>
     <t xml:space="preserve">2 – тики, чужой рис. 3., нет вывода по п.5</t>
   </si>
   <si>
@@ -179,6 +176,27 @@
   </si>
   <si>
     <t xml:space="preserve">9 – нет выводов по п.1, странное поведение решения на рис.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 – непонятен рис.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 – подписсь к рис.11 непонятна. И вроде дб 4 графика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 – вывод из рис.22 сомнителен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 – недоделан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 – нет графикво сходимости по п.1,2, нет ссылок на рисунки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 – нет картинок с решением</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 нет годунова, нет сходимости</t>
   </si>
 </sst>
 </file>
@@ -488,10 +506,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S22" activeCellId="0" sqref="S22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -509,7 +527,8 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="20" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4" t="s">
@@ -533,7 +552,8 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
     </row>
-    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
@@ -598,6 +618,36 @@
       </c>
       <c r="C3" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="N3" s="1" t="n">
         <f aca="false">(15 - B3)/15*10</f>
@@ -612,14 +662,14 @@
       </c>
       <c r="Q3" s="1" t="n">
         <f aca="false">SUM(D3:M3)/100*30</f>
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="S3" s="1" t="n">
         <f aca="false">SUM(N3:R3)</f>
-        <v>27.6666666666667</v>
-      </c>
-    </row>
-    <row r="4" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50.4666666666667</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -812,6 +862,36 @@
       <c r="C8" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="D8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>5</v>
+      </c>
       <c r="N8" s="1" t="n">
         <f aca="false">(15 - B8)/15*10</f>
         <v>8.33333333333333</v>
@@ -825,11 +905,11 @@
       </c>
       <c r="Q8" s="1" t="n">
         <f aca="false">SUM(D8:M8)/100*30</f>
-        <v>0</v>
+        <v>24.6</v>
       </c>
       <c r="S8" s="1" t="n">
         <f aca="false">SUM(N8:R8)</f>
-        <v>22.3333333333333</v>
+        <v>46.9333333333333</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,7 +942,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
@@ -925,7 +1005,7 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="11" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -1058,36 +1138,16 @@
       <c r="C14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="L14" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <v>6</v>
-      </c>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="0"/>
       <c r="N14" s="1" t="n">
         <f aca="false">(15 - B14)/15*10</f>
         <v>6.33333333333333</v>
@@ -1101,11 +1161,11 @@
       </c>
       <c r="Q14" s="1" t="n">
         <f aca="false">SUM(D14:M14)/100*30</f>
-        <v>22.8</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1" t="n">
         <f aca="false">SUM(N14:R14)</f>
-        <v>29.1333333333333</v>
+        <v>6.33333333333333</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1242,45 +1302,88 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B51" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B52" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B54" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B55" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B56" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B57" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/doc/grades.xlsx
+++ b/doc/grades.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t xml:space="preserve">Оценка за задания (из 10)</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t xml:space="preserve">10 нет годунова, нет сходимости</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чужие рисунки</t>
   </si>
 </sst>
 </file>
@@ -230,7 +233,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +250,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF2A6099"/>
         <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D1D5"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -290,7 +299,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -320,6 +329,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -373,7 +386,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFF7D1D5"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -506,10 +519,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -610,124 +623,127 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="n">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="n">
+      <c r="D3" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="n">
+      <c r="G3" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="J3" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K3" s="1" t="n">
+      <c r="J3" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="K3" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="L3" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="M3" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="N3" s="7" t="n">
         <f aca="false">(15 - B3)/15*10</f>
         <v>8.66666666666667</v>
       </c>
-      <c r="O3" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="P3" s="1" t="n">
+      <c r="O3" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="P3" s="7" t="n">
         <f aca="false">C3*10</f>
         <v>10</v>
       </c>
-      <c r="Q3" s="1" t="n">
+      <c r="Q3" s="7" t="n">
         <f aca="false">SUM(D3:M3)/100*30</f>
         <v>22.8</v>
       </c>
-      <c r="S3" s="1" t="n">
+      <c r="R3" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="S3" s="7" t="n">
         <f aca="false">SUM(N3:R3)</f>
-        <v>50.4666666666667</v>
+        <v>90.4666666666667</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7" t="n">
+      <c r="B4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="F4" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="I4" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="K4" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="L4" s="7" t="n">
+      <c r="F4" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="H4" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="K4" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="L4" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="M4" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="N4" s="7" t="n">
+      <c r="M4" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="N4" s="8" t="n">
         <f aca="false">(15 - B4)/15*10</f>
         <v>10</v>
       </c>
-      <c r="O4" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P4" s="7" t="n">
+      <c r="O4" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="P4" s="8" t="n">
         <f aca="false">C4*10</f>
         <v>20</v>
       </c>
-      <c r="Q4" s="7" t="n">
+      <c r="Q4" s="8" t="n">
         <f aca="false">SUM(D4:M4)/100*30</f>
         <v>28.2</v>
       </c>
-      <c r="R4" s="7" t="n">
+      <c r="R4" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="S4" s="7" t="n">
+      <c r="S4" s="8" t="n">
         <f aca="false">SUM(N4:R4)</f>
         <v>108.2</v>
       </c>
@@ -763,63 +779,66 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="7" t="n">
         <v>1.5</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="n">
+      <c r="C6" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="J6" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="K6" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="L6" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="M6" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="N6" s="1" t="n">
+      <c r="N6" s="7" t="n">
         <f aca="false">(15 - B6)/15*10</f>
         <v>9</v>
       </c>
-      <c r="O6" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="P6" s="1" t="n">
+      <c r="O6" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P6" s="7" t="n">
         <f aca="false">C6*10</f>
         <v>20</v>
       </c>
-      <c r="Q6" s="1" t="n">
+      <c r="Q6" s="7" t="n">
         <f aca="false">SUM(D6:M6)/100*30</f>
         <v>19.2</v>
       </c>
-      <c r="S6" s="1" t="n">
+      <c r="R6" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="S6" s="7" t="n">
         <f aca="false">SUM(N6:R6)</f>
-        <v>58.2</v>
+        <v>93.2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -853,63 +872,66 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="7" t="n">
         <v>2.5</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="I8" s="1" t="n">
+      <c r="D8" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="I8" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="J8" s="1" t="n">
+      <c r="J8" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="K8" s="1" t="n">
+      <c r="K8" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="L8" s="1" t="n">
+      <c r="L8" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="M8" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="N8" s="7" t="n">
         <f aca="false">(15 - B8)/15*10</f>
         <v>8.33333333333333</v>
       </c>
-      <c r="O8" s="1" t="n">
+      <c r="O8" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="P8" s="1" t="n">
+      <c r="P8" s="7" t="n">
         <f aca="false">C8*10</f>
         <v>10</v>
       </c>
-      <c r="Q8" s="1" t="n">
-        <f aca="false">SUM(D8:M8)/100*30</f>
-        <v>24.6</v>
-      </c>
-      <c r="S8" s="1" t="n">
+      <c r="Q8" s="7" t="n">
+        <f aca="false">SUM(D8:M8)/100*30*0.8</f>
+        <v>19.68</v>
+      </c>
+      <c r="R8" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="S8" s="7" t="n">
         <f aca="false">SUM(N8:R8)</f>
-        <v>46.9333333333333</v>
+        <v>67.0133333333333</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -922,6 +944,36 @@
       <c r="C9" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="D9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="N9" s="1" t="n">
         <f aca="false">(15 - B9)/15*10</f>
         <v>8</v>
@@ -934,136 +986,139 @@
         <v>10</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <f aca="false">SUM(D9:M9)/100*30</f>
-        <v>0</v>
+        <f aca="false">SUM(D9:M9)/100*30*3</f>
+        <v>19.8</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="S9" s="1" t="n">
         <f aca="false">SUM(N9:R9)</f>
-        <v>22</v>
+        <v>66.8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7" t="n">
+      <c r="B10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="E10" s="7" t="n">
+      <c r="D10" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="G10" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="H10" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="I10" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="K10" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="L10" s="7" t="n">
+      <c r="G10" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J10" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="K10" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="L10" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="M10" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="N10" s="7" t="n">
+      <c r="M10" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="N10" s="8" t="n">
         <f aca="false">(15 - B10)/15*10</f>
         <v>10</v>
       </c>
-      <c r="O10" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="P10" s="7" t="n">
+      <c r="O10" s="8" t="n">
+        <v>9</v>
+      </c>
+      <c r="P10" s="8" t="n">
         <f aca="false">C10*10</f>
         <v>10</v>
       </c>
-      <c r="Q10" s="7" t="n">
+      <c r="Q10" s="8" t="n">
         <f aca="false">SUM(D10:M10)/100*30</f>
         <v>26.1</v>
       </c>
-      <c r="R10" s="7" t="n">
+      <c r="R10" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="S10" s="7" t="n">
+      <c r="S10" s="8" t="n">
         <f aca="false">SUM(N10:R10)</f>
         <v>95.1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="E11" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="F11" s="7" t="n">
+      <c r="B11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="G11" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="H11" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="I11" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="J11" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="K11" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="L11" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="M11" s="7" t="n">
+      <c r="G11" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="N11" s="7" t="n">
+      <c r="N11" s="8" t="n">
         <f aca="false">(15 - B11)/15*10</f>
         <v>10</v>
       </c>
-      <c r="O11" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P11" s="7" t="n">
+      <c r="O11" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="P11" s="8" t="n">
         <f aca="false">C11*10</f>
         <v>20</v>
       </c>
-      <c r="Q11" s="7" t="n">
+      <c r="Q11" s="8" t="n">
         <f aca="false">SUM(D11:M11)/100*30</f>
         <v>28.8</v>
       </c>
-      <c r="R11" s="7" t="n">
+      <c r="R11" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="S11" s="7" t="n">
+      <c r="S11" s="8" t="n">
         <f aca="false">SUM(N11:R11)</f>
         <v>108.8</v>
       </c>
@@ -1138,13 +1193,27 @@
       <c r="C14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
+      <c r="D14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>9</v>
+      </c>
       <c r="K14" s="0"/>
       <c r="L14" s="0"/>
       <c r="M14" s="0"/>
@@ -1161,11 +1230,17 @@
       </c>
       <c r="Q14" s="1" t="n">
         <f aca="false">SUM(D14:M14)/100*30</f>
-        <v>0</v>
+        <v>18.9</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="S14" s="1" t="n">
         <f aca="false">SUM(N14:R14)</f>
-        <v>6.33333333333333</v>
+        <v>50.2333333333333</v>
+      </c>
+      <c r="T14" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1384,6 +1459,14 @@
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="1" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
